--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H2">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.072165666666667</v>
+        <v>0.7435376666666667</v>
       </c>
       <c r="N2">
-        <v>3.216497</v>
+        <v>2.230613</v>
       </c>
       <c r="O2">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="P2">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="Q2">
-        <v>37.24702989917166</v>
+        <v>0.07186613747988889</v>
       </c>
       <c r="R2">
-        <v>335.223269092545</v>
+        <v>0.6467952373189999</v>
       </c>
       <c r="S2">
-        <v>0.1229788682357518</v>
+        <v>0.0003429937013351951</v>
       </c>
       <c r="T2">
-        <v>0.1229788682357518</v>
+        <v>0.0003429937013351951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H3">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.359437</v>
       </c>
       <c r="O3">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664225</v>
       </c>
       <c r="P3">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664224</v>
       </c>
       <c r="Q3">
-        <v>4.162279860938334</v>
+        <v>0.01158038120344444</v>
       </c>
       <c r="R3">
-        <v>37.460518748445</v>
+        <v>0.104223430831</v>
       </c>
       <c r="S3">
-        <v>0.0137426384859224</v>
+        <v>5.526939322366476E-05</v>
       </c>
       <c r="T3">
-        <v>0.0137426384859224</v>
+        <v>5.526939322366475E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H4">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.401087</v>
+        <v>0.487255</v>
       </c>
       <c r="N4">
-        <v>1.203261</v>
+        <v>1.461765</v>
       </c>
       <c r="O4">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="P4">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="Q4">
-        <v>13.933760374565</v>
+        <v>0.04709530718833333</v>
       </c>
       <c r="R4">
-        <v>125.403843371085</v>
+        <v>0.423857764695</v>
       </c>
       <c r="S4">
-        <v>0.04600522741734843</v>
+        <v>0.0002247705845129753</v>
       </c>
       <c r="T4">
-        <v>0.04600522741734843</v>
+        <v>0.0002247705845129753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H5">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I5">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J5">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.072165666666667</v>
+        <v>0.7435376666666667</v>
       </c>
       <c r="N5">
-        <v>3.216497</v>
+        <v>2.230613</v>
       </c>
       <c r="O5">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="P5">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="Q5">
-        <v>166.0400936035079</v>
+        <v>115.1473765755732</v>
       </c>
       <c r="R5">
-        <v>1494.360842431571</v>
+        <v>1036.326389180159</v>
       </c>
       <c r="S5">
-        <v>0.5482161355789553</v>
+        <v>0.5495609792824289</v>
       </c>
       <c r="T5">
-        <v>0.5482161355789552</v>
+        <v>0.549560979282429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H6">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I6">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J6">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.359437</v>
       </c>
       <c r="O6">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664225</v>
       </c>
       <c r="P6">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664224</v>
       </c>
       <c r="Q6">
         <v>18.55464286911011</v>
@@ -818,10 +818,10 @@
         <v>166.991785821991</v>
       </c>
       <c r="S6">
-        <v>0.06126203852330438</v>
+        <v>0.08855527593102812</v>
       </c>
       <c r="T6">
-        <v>0.06126203852330438</v>
+        <v>0.08855527593102812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H7">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I7">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J7">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.401087</v>
+        <v>0.487255</v>
       </c>
       <c r="N7">
-        <v>1.203261</v>
+        <v>1.461765</v>
       </c>
       <c r="O7">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="P7">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="Q7">
-        <v>62.11402313431366</v>
+        <v>75.45836275498834</v>
       </c>
       <c r="R7">
-        <v>559.0262082088229</v>
+        <v>679.1252647948951</v>
       </c>
       <c r="S7">
-        <v>0.205082453213191</v>
+        <v>0.3601382242821949</v>
       </c>
       <c r="T7">
-        <v>0.205082453213191</v>
+        <v>0.3601382242821949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H8">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.072165666666667</v>
+        <v>0.7435376666666667</v>
       </c>
       <c r="N8">
-        <v>3.216497</v>
+        <v>2.230613</v>
       </c>
       <c r="O8">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="P8">
-        <v>0.6730206656141882</v>
+        <v>0.5505219265933909</v>
       </c>
       <c r="Q8">
-        <v>0.5529444253844444</v>
+        <v>0.1294774186603333</v>
       </c>
       <c r="R8">
-        <v>4.97649982846</v>
+        <v>1.165296767943</v>
       </c>
       <c r="S8">
-        <v>0.001825661799481074</v>
+        <v>0.0006179536096268163</v>
       </c>
       <c r="T8">
-        <v>0.001825661799481074</v>
+        <v>0.0006179536096268166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H9">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.359437</v>
       </c>
       <c r="O9">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664225</v>
       </c>
       <c r="P9">
-        <v>0.0752086910034012</v>
+        <v>0.08871012126664224</v>
       </c>
       <c r="Q9">
-        <v>0.06179041529555556</v>
+        <v>0.02086376028966667</v>
       </c>
       <c r="R9">
-        <v>0.5561137376600001</v>
+        <v>0.187773842607</v>
       </c>
       <c r="S9">
-        <v>0.0002040139941744322</v>
+        <v>9.957594239047025E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002040139941744322</v>
+        <v>9.957594239047026E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H10">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401087</v>
+        <v>0.487255</v>
       </c>
       <c r="N10">
-        <v>1.203261</v>
+        <v>1.461765</v>
       </c>
       <c r="O10">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="P10">
-        <v>0.2517706433824106</v>
+        <v>0.3607679521399669</v>
       </c>
       <c r="Q10">
-        <v>0.2068512615533333</v>
+        <v>0.08484912393499999</v>
       </c>
       <c r="R10">
-        <v>1.86166135398</v>
+        <v>0.7636421154149999</v>
       </c>
       <c r="S10">
-        <v>0.0006829627518711803</v>
+        <v>0.0004049572732590293</v>
       </c>
       <c r="T10">
-        <v>0.0006829627518711803</v>
+        <v>0.0004049572732590294</v>
       </c>
     </row>
   </sheetData>
